--- a/notebooks/assets/test_random_selection/RFnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFnh3_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.255</v>
+        <v>4.039</v>
       </c>
       <c r="C2" t="n">
-        <v>2.378</v>
+        <v>1.891</v>
       </c>
       <c r="D2" t="n">
-        <v>3.558</v>
+        <v>3.524</v>
       </c>
       <c r="E2" t="n">
-        <v>4.581</v>
+        <v>3.78</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866</v>
+        <v>1.812</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>5.365</v>
       </c>
       <c r="C3" t="n">
-        <v>3.043</v>
+        <v>2.496</v>
       </c>
       <c r="D3" t="n">
-        <v>5.076</v>
+        <v>4.398</v>
       </c>
       <c r="E3" t="n">
-        <v>6.377</v>
+        <v>5.358</v>
       </c>
       <c r="F3" t="n">
-        <v>2.941</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.866</v>
+        <v>29.553</v>
       </c>
       <c r="C4" t="n">
-        <v>9.552</v>
+        <v>6.521</v>
       </c>
       <c r="D4" t="n">
-        <v>26.513</v>
+        <v>22.504</v>
       </c>
       <c r="E4" t="n">
-        <v>44.628</v>
+        <v>30.148</v>
       </c>
       <c r="F4" t="n">
-        <v>10.47</v>
+        <v>7.815</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.868</v>
+        <v>0.895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.712</v>
+        <v>0.829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.754</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.848</v>
       </c>
       <c r="F5" t="n">
-        <v>0.863</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.378</v>
+        <v>15.383</v>
       </c>
       <c r="C6" t="n">
-        <v>10.743</v>
+        <v>10.758</v>
       </c>
       <c r="D6" t="n">
-        <v>8.792</v>
+        <v>8.942</v>
       </c>
       <c r="E6" t="n">
         <v>10.304</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.946</v>
+        <v>16.887</v>
       </c>
       <c r="C7" t="n">
-        <v>11.616</v>
+        <v>11.705</v>
       </c>
       <c r="D7" t="n">
-        <v>12.76</v>
+        <v>12.639</v>
       </c>
       <c r="E7" t="n">
-        <v>14.464</v>
+        <v>13.799</v>
       </c>
       <c r="F7" t="n">
-        <v>10.437</v>
+        <v>10.497</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.763</v>
+        <v>288.521</v>
       </c>
       <c r="C8" t="n">
-        <v>137.789</v>
+        <v>138.082</v>
       </c>
       <c r="D8" t="n">
-        <v>172.501</v>
+        <v>178.69</v>
       </c>
       <c r="E8" t="n">
         <v>211.569</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.17</v>
+        <v>-0.022</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.32</v>
+        <v>-2.954</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.195</v>
+        <v>-0.236</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>0.062</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.122</v>
+        <v>-0.547</v>
       </c>
     </row>
   </sheetData>
